--- a/hardware/LM4041 Voltage Reference Design.xlsx
+++ b/hardware/LM4041 Voltage Reference Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AuraN\Documents\fall25\ece364d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aura\Documents\fall25\ece346d-intro_engineering_design\senior-design-strength-training\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AF069-01F1-4603-A12A-9FA5018B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84607B49-0478-4CAD-B6AA-771803509E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">(Vs-Vz)/Itotal </t>
   </si>
   <si>
-    <t>2k</t>
+    <t>2.2k</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
